--- a/RUDN/Importance/Varible_class_in_Western Asia.xlsx
+++ b/RUDN/Importance/Varible_class_in_Western Asia.xlsx
@@ -14,18 +14,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
   <si>
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Rural population</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
 </sst>
 </file>
@@ -383,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -399,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4752228163992869</v>
+        <v>0.149882897734642</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -407,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3893048128342247</v>
+        <v>0.1147540956735611</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -415,7 +613,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0998217468805704</v>
+        <v>0.1100702583789825</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -423,7 +621,535 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.03565062388591794</v>
+        <v>0.1053864136338234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.07259953022003174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.05620608851313591</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.04215456545352936</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.03981264680624008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.03512880578637123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.02107728272676468</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.01170960161834955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.01170960161834955</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.01170960161834955</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.009367681108415127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.009367681108415127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.007025761064141989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.007025761064141989</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.007025761064141989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.007025761064141989</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.007025761064141989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.007025761064141989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.004683840554207563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>0.002341920277103782</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.002341920277103782</v>
       </c>
     </row>
   </sheetData>
